--- a/요구사항 명세서.xlsx
+++ b/요구사항 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UESR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -462,83 +462,83 @@
   </si>
   <si>
     <t>관리자 USER Table</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>논리이름</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>물리이름</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>데이터 타입</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ALLOW NULL</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>User_id</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>varchar(50)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NOT NULL</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>성명</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>varchar(50)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>사용상태</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Using_status</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>시작시간</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Start_time</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>남은시간</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Late_time</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>좌석</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Seat_num</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>초단기실황, 초단기예보, 단기예보, 예보버전 정보를 조회하는 서비스입니다. 초단기실황정보는 예보 구역에 대한 대표 AWS 관측값을, 초단기예보는 예보시점부터 6시간 이내의 예보를, 단기예보는 예보기간과 구역을 시공간적으로 세분화한 예보를 제공합니다.</t>
@@ -705,7 +705,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,15 +727,6 @@
       <name val="210 도시락 B"/>
       <family val="1"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -830,6 +821,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -841,12 +869,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9948118533890809E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,8 +908,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -938,34 +966,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1221,309 +1221,294 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,216 +1790,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="6.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.75" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="27">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="27.75">
+      <c r="B2" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:5" ht="18.75" thickTop="1" thickBot="1">
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="81"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="82"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="84" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17.25" thickTop="1">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="86" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="86" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="3"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="86" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="3"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="86" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="2:5" ht="27">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="85"/>
+      <c r="C12" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="86" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="86" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="86" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="82" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="86" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="90" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2051,938 +2042,945 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="70" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7" ht="78" customHeight="1" thickBot="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="61" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="9" spans="2:7" ht="27.75" customHeight="1">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="77" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="80" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="18" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="56" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="56"/>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B20" s="13">
+      <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="14"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B21" s="13">
+      <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="14"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B22" s="13">
+      <c r="B22" s="8">
         <v>3</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B23" s="20">
+      <c r="B23" s="15">
         <v>4</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="75"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="2:7" ht="23.25" customHeight="1">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="3">
         <v>10</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="3">
         <v>4</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="4">
         <v>8</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="4">
         <v>20210628</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="4">
         <v>4</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="4">
         <v>600</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="4">
         <v>55</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="13">
         <v>2</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="13">
         <v>127</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="75"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="3">
         <v>4</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="3">
         <v>10</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="27">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="4">
         <v>8</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="4">
         <v>20210628</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="4">
         <v>6</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="4">
         <v>1</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="4">
         <v>1</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="20">
         <v>55</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="4">
         <v>2</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="4">
         <v>127</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="27">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="4">
         <v>3</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="41.25" thickBot="1">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="13">
         <v>2</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="13">
         <v>1</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="13">
         <v>0</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="52" spans="2:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="49"/>
     </row>
     <row r="53" spans="2:7" ht="24" customHeight="1">
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="73"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="86"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="86"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="66"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="66"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="65"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="66"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="65"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="40"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="66"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="66"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="66"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="66"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="66"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="66"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="66"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="40"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="66"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="40"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="66"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="40"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="66"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="65"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="66"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="40"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="66"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="40"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="66"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="40"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="66"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="40"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="66"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="40"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="66"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="40"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="66"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="67"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="69"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B12:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B58:G79"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B9:C9"/>
@@ -2999,18 +2997,11 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3035,108 +3026,108 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="27" customHeight="1">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="3:6" ht="27" customHeight="1">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="27" customHeight="1">
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="27" customHeight="1">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="27" customHeight="1">
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="27" customHeight="1">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="27" customHeight="1">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="27" customHeight="1">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="22" t="s">
         <v>118</v>
       </c>
     </row>
